--- a/public/import/daily_template(6).xlsx
+++ b/public/import/daily_template(6).xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -25,75 +25,99 @@
     <t>time</t>
   </si>
   <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
-    <t>Create AM PM</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>Like Komen Sosmed</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>Training Kerjaan Audit Finance</t>
+    <t>Beres-beres gudang</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>Dump stock opname dan share ready stock ke grup penjualan</t>
   </si>
   <si>
     <t>09:30</t>
   </si>
   <si>
-    <t>2022-06-14</t>
-  </si>
-  <si>
-    <t>Morning Briefing</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>Bedah Buku Internal Audit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rekapitulasi LHP &amp; BAP </t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>Rekapitulasi Retur Suplier</t>
+    <t>Input pengeluaran Kas semarang</t>
+  </si>
+  <si>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menerima orderan realme </t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>membuat sales order penjualan</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktivasi realme </t>
   </si>
   <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>Report Hasil Pemeriksaan</t>
-  </si>
-  <si>
-    <t>15:45</t>
+    <t>Serah terima barang ke Supir</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proses T.O ALOKASI REALME </t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>input pembelian barang datang</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>Laporan cash opname Cv top ke kas besar</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,16 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A52" sqref="A52:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,216 +471,666 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>